--- a/SubRES_TMPL/SubRES_ShellImprovement.xlsx
+++ b/SubRES_TMPL/SubRES_ShellImprovement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\Demo_Adv_Veda\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB6AB53-519A-4BE4-BFD9-215FFFFA6829}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF136401-6492-449F-A0F7-138D95BF8D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="570" windowWidth="22185" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCA_Shell improvement" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>~FI_T</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>PJ-Yr</t>
-  </si>
-  <si>
-    <t>PRE</t>
   </si>
   <si>
     <t>RShellImprovement</t>
@@ -973,8 +970,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1182,10 +1179,10 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>27</v>
@@ -1321,11 +1318,8 @@
       <c r="K12" s="10">
         <v>3</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>38</v>
-      </c>
-      <c r="R12" t="s">
-        <v>39</v>
       </c>
       <c r="S12" t="s">
         <v>34</v>

--- a/SubRES_TMPL/SubRES_ShellImprovement.xlsx
+++ b/SubRES_TMPL/SubRES_ShellImprovement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\Demo_Adv_Veda\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF136401-6492-449F-A0F7-138D95BF8D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97DC60C-3E78-4F57-9A21-FBAD2FF9E8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="3150" windowWidth="15795" windowHeight="8745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCA_Shell improvement" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>~FI_T</t>
   </si>
@@ -48,9 +51,6 @@
     <t>Comm-IN</t>
   </si>
   <si>
-    <t>Comm-OUT</t>
-  </si>
-  <si>
     <t>FIXOM</t>
   </si>
   <si>
@@ -87,9 +87,6 @@
     <t>Sets</t>
   </si>
   <si>
-    <t>EFF</t>
-  </si>
-  <si>
     <t>~FI_Process</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Vintage</t>
   </si>
   <si>
-    <t>AFA</t>
-  </si>
-  <si>
     <t>VAROM</t>
   </si>
   <si>
@@ -157,6 +151,27 @@
   </si>
   <si>
     <t>associated improvement for cooling</t>
+  </si>
+  <si>
+    <t>CommGrp</t>
+  </si>
+  <si>
+    <t>ACT_EFF</t>
+  </si>
+  <si>
+    <t>AFC</t>
+  </si>
+  <si>
+    <t>ctypetest</t>
+  </si>
+  <si>
+    <t>testing ctype</t>
+  </si>
+  <si>
+    <t>RENEN</t>
+  </si>
+  <si>
+    <t>NRG</t>
   </si>
 </sst>
 </file>
@@ -968,10 +983,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1071,7 +1086,7 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="P4" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q4" s="16"/>
       <c r="R4" s="17"/>
@@ -1097,31 +1112,31 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="P5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="18" t="s">
+      <c r="T5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="U5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="V5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="W5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="X5" s="18" t="s">
         <v>13</v>
-      </c>
-      <c r="X5" s="18" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1141,20 +1156,20 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -1179,13 +1194,13 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -1206,129 +1221,165 @@
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="E10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="2"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="18" t="s">
+      <c r="E11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="2"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="T11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="V11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="W11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="X11" s="18" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="str">
-        <f>R12</f>
+      <c r="B12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="13"/>
+      <c r="P12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="str">
+        <f>R13</f>
         <v>RShellImprovement</v>
       </c>
-      <c r="C12" s="10" t="str">
+      <c r="C13" s="10" t="str">
         <f>R6</f>
         <v>ShellImp_rsd</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F13" s="10">
         <v>2020</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K13" s="10">
         <v>3</v>
       </c>
-      <c r="R12" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="R13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" t="s">
         <v>34</v>
-      </c>
-      <c r="T12" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
